--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -332,6 +338,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -455,6 +464,9 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -462,6 +474,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
 </sst>
 </file>
@@ -520,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -532,6 +547,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,205 +569,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -773,3525 +822,4056 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,52 +32,55 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -823,4055 +826,4055 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -341,7 +344,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -461,15 +464,6 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -479,7 +473,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
 </sst>
 </file>
@@ -538,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -550,7 +544,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -647,13 +641,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -670,13 +664,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -693,7 +687,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -716,7 +710,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -739,7 +733,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -762,7 +756,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -785,7 +779,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -807,3182 +801,3182 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>140</v>
@@ -3991,44 +3985,44 @@
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>143</v>
@@ -4037,844 +4031,591 @@
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="G171" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="G173" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="G174" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -359,22 +359,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -532,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3318,10 +3336,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3332,88 +3350,88 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3442,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3465,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3488,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3493,19 +3511,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3516,19 +3534,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3557,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3580,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3603,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3626,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3649,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3654,19 +3672,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3677,19 +3695,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3700,19 +3718,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3723,19 +3741,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3746,19 +3764,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3769,19 +3787,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3792,19 +3810,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3815,19 +3833,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3838,19 +3856,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3861,19 +3879,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3884,19 +3902,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3907,16 +3925,16 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>135</v>
@@ -3930,7 +3948,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>136</v>
@@ -3939,7 +3957,7 @@
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>137</v>
@@ -3953,7 +3971,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>138</v>
@@ -3962,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>139</v>
@@ -3976,7 +3994,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>140</v>
@@ -3985,10 +4003,10 @@
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3999,19 +4017,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4022,19 +4040,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4045,19 +4063,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4068,19 +4086,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4091,19 +4109,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4114,508 +4132,577 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E177" s="2" t="s">
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>153</v>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -242,6 +242,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -464,22 +470,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1648,19 +1654,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1677,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1723,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1815,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1861,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1930,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1953,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1976,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2114,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2137,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,16 +2163,16 @@
         <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,7 +2186,7 @@
         <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -2189,7 +2195,7 @@
         <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2344,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2669,19 @@
         <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2686,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2695,7 +2701,7 @@
         <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2709,7 +2715,7 @@
         <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -2718,7 +2724,7 @@
         <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2729,22 +2735,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2781,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2804,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2821,22 +2827,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2844,19 +2850,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,22 +2873,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2890,22 +2896,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2913,19 +2919,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2936,22 +2942,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2959,22 +2965,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2982,19 +2988,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3005,22 +3011,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -3028,19 +3034,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,22 +3057,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>28</v>
@@ -3074,22 +3080,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3097,22 +3103,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,22 +3149,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3169,22 +3175,22 @@
         <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
@@ -3192,22 +3198,22 @@
         <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
@@ -3215,22 +3221,22 @@
         <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
@@ -3238,292 +3244,292 @@
         <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3540,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3563,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3580,19 +3586,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3603,19 +3609,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3626,19 +3632,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3649,19 +3655,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3672,19 +3678,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3695,19 +3701,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3718,19 +3724,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3741,19 +3747,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3764,19 +3770,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3787,19 +3793,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3810,19 +3816,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3833,19 +3839,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3856,19 +3862,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3879,19 +3885,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3902,19 +3908,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3928,16 +3934,16 @@
         <v>132</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3951,16 +3957,16 @@
         <v>132</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3974,16 +3980,16 @@
         <v>132</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3997,16 +4003,16 @@
         <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4020,16 +4026,16 @@
         <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4040,19 +4046,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4063,19 +4069,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4086,19 +4092,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4109,19 +4115,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4132,19 +4138,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4155,19 +4161,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4178,19 +4184,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4201,508 +4207,646 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E180" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>159</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -497,7 +497,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4831,7 +4834,7 @@
         <v>158</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
 </sst>
 </file>
@@ -4834,7 +4831,7 @@
         <v>158</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
 </sst>
 </file>
@@ -4831,7 +4834,7 @@
         <v>158</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -324,6 +324,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -559,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -569,7 +599,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2209,19 +2239,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2262,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2285,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2308,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2331,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2354,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2377,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2400,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2423,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2416,19 +2446,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2469,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2492,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2515,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2538,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2561,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2653,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2676,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2722,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2715,19 +2745,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2738,22 +2768,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2761,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2784,19 +2814,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2807,19 +2837,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2830,19 +2860,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2853,19 +2883,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2876,19 +2906,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2899,22 +2929,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2922,19 +2952,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2945,22 +2975,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2968,19 +2998,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>16</v>
@@ -2991,19 +3021,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3014,19 +3044,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3037,19 +3067,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3060,19 +3090,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3083,19 +3113,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3106,22 +3136,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3129,22 +3159,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3152,22 +3182,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3175,19 +3205,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>16</v>
@@ -3198,22 +3228,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>28</v>
@@ -3221,19 +3251,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3244,19 +3274,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3267,275 +3297,275 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3543,19 +3573,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3566,22 +3596,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3589,272 +3619,272 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3865,19 +3895,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3888,19 +3918,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3911,19 +3941,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3934,19 +3964,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3957,19 +3987,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3980,19 +4010,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4003,19 +4033,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4026,19 +4056,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4049,19 +4079,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4072,19 +4102,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4095,19 +4125,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4118,19 +4148,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4141,19 +4171,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4164,19 +4194,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4187,19 +4217,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4210,19 +4240,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4233,19 +4263,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4256,19 +4286,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4279,19 +4309,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4302,19 +4332,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4325,531 +4355,853 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>161</v>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -248,13 +254,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -366,78 +372,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
   </si>
   <si>
     <t>Dati Riconoscimento - Generalità discendenti</t>
@@ -589,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1710,19 +1644,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1667,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1690,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1713,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1736,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1759,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1782,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1805,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1828,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1851,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1874,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1920,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2009,19 +1943,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2032,19 +1966,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2055,19 +1989,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2242,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2265,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2288,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2311,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2334,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2357,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2380,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2472,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2495,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2518,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2541,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2587,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2610,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2633,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2656,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2679,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2702,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2725,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2748,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2771,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2794,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2817,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2840,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2863,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2886,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2909,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3001,7 +2935,7 @@
         <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3010,10 +2944,10 @@
         <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -3024,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3047,16 +2981,16 @@
         <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3067,22 +3001,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3090,19 +3024,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3047,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3070,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3159,22 +3093,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3182,19 +3116,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3205,22 +3139,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3228,22 +3162,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>28</v>
@@ -3251,22 +3185,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3274,19 +3208,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3297,22 +3231,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3320,22 +3254,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3343,19 +3277,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3366,22 +3300,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3389,19 +3323,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3412,22 +3346,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3435,22 +3369,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3458,22 +3392,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3481,19 +3415,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3504,22 +3438,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3527,22 +3461,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3550,22 +3484,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3573,19 +3507,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3596,22 +3530,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3622,22 +3556,22 @@
         <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
@@ -3645,22 +3579,22 @@
         <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
@@ -3668,22 +3602,22 @@
         <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
@@ -3691,200 +3625,200 @@
         <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3895,19 +3829,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3918,19 +3852,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3941,19 +3875,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3964,19 +3898,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3987,19 +3921,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4010,19 +3944,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4033,19 +3967,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4056,19 +3990,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4079,19 +4013,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4102,19 +4036,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4125,19 +4059,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4148,19 +4082,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4171,19 +4105,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4194,19 +4128,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4217,19 +4151,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4240,19 +4174,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4263,19 +4197,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4286,19 +4220,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4309,19 +4243,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4332,19 +4266,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4355,19 +4289,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4378,19 +4312,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4401,19 +4335,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4424,19 +4358,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4447,19 +4381,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4470,19 +4404,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4493,19 +4427,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4516,19 +4450,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4539,669 +4473,554 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2294,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2846,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2961,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2984,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,7 +3010,7 @@
         <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3013,10 +3019,10 @@
         <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3027,16 +3033,16 @@
         <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,7 +3056,7 @@
         <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3059,7 +3065,7 @@
         <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3070,22 +3076,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3093,19 +3099,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3122,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3168,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3185,22 +3191,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3231,22 +3237,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3254,19 +3260,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3277,19 +3283,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3300,22 +3306,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3323,22 +3329,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3346,19 +3352,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3375,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3398,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>16</v>
@@ -3415,19 +3421,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3438,19 +3444,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>16</v>
@@ -3461,22 +3467,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3484,22 +3490,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3507,19 +3513,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3530,22 +3536,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3553,22 +3559,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>28</v>
@@ -3576,22 +3582,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>28</v>
@@ -3599,19 +3605,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3622,22 +3628,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3648,16 +3654,16 @@
         <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3671,19 +3677,19 @@
         <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3694,16 +3700,16 @@
         <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3717,19 +3723,19 @@
         <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>28</v>
@@ -3737,19 +3743,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3760,19 +3766,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3783,19 +3789,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3806,19 +3812,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3829,19 +3835,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3852,19 +3858,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3875,19 +3881,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3898,19 +3904,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3921,19 +3927,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3944,19 +3950,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3967,19 +3973,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3990,19 +3996,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4019,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4036,19 +4042,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4059,19 +4065,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4082,19 +4088,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4105,19 +4111,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4128,19 +4134,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4151,19 +4157,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4174,19 +4180,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4200,16 +4206,16 @@
         <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4223,16 +4229,16 @@
         <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4246,16 +4252,16 @@
         <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4269,16 +4275,16 @@
         <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4292,16 +4298,16 @@
         <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4312,19 +4318,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4335,19 +4341,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4358,19 +4364,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4381,19 +4387,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4404,19 +4410,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4427,19 +4433,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4450,19 +4456,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4473,554 +4479,692 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E195" s="2" t="s">
+      <c r="G195" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>149</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2346,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2369,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2898,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3036,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3079,7 +3085,7 @@
         <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3088,10 +3094,10 @@
         <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3102,16 +3108,16 @@
         <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3125,7 +3131,7 @@
         <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3134,7 +3140,7 @@
         <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3145,22 +3151,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3243,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3260,22 +3266,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3306,22 +3312,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3329,19 +3335,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3375,22 +3381,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>16</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3444,22 +3450,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3467,22 +3473,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3490,19 +3496,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>16</v>
@@ -3513,19 +3519,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3542,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>16</v>
@@ -3559,22 +3565,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>28</v>
@@ -3582,22 +3588,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>28</v>
@@ -3605,19 +3611,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3628,22 +3634,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3651,22 +3657,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>28</v>
@@ -3674,22 +3680,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3697,19 +3703,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3720,22 +3726,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>28</v>
@@ -3746,16 +3752,16 @@
         <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3769,19 +3775,19 @@
         <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>28</v>
@@ -3792,16 +3798,16 @@
         <v>122</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3815,19 +3821,19 @@
         <v>122</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>28</v>
@@ -3835,19 +3841,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3858,19 +3864,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3881,19 +3887,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3904,19 +3910,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3927,19 +3933,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3956,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3979,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3996,19 +4002,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4019,19 +4025,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4042,19 +4048,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4065,19 +4071,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4088,19 +4094,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4111,19 +4117,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4134,19 +4140,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4157,19 +4163,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4180,19 +4186,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4203,19 +4209,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4226,19 +4232,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4249,19 +4255,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4272,19 +4278,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4295,19 +4301,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4321,16 +4327,16 @@
         <v>124</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4344,16 +4350,16 @@
         <v>124</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4367,16 +4373,16 @@
         <v>124</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4390,16 +4396,16 @@
         <v>124</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4413,16 +4419,16 @@
         <v>124</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4433,19 +4439,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4456,19 +4462,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4479,19 +4485,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4502,19 +4508,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4525,19 +4531,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4548,19 +4554,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4571,19 +4577,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4594,577 +4600,715 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E201" s="2" t="s">
+      <c r="G201" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>151</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -535,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4698,7 +4704,7 @@
         <v>148</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>128</v>
@@ -4715,600 +4721,623 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F182" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E207" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>153</v>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -384,12 +384,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -541,16 +535,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3850,16 +3844,16 @@
         <v>124</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3873,16 +3867,16 @@
         <v>124</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3896,16 +3890,16 @@
         <v>124</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3919,16 +3913,16 @@
         <v>124</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3942,16 +3936,16 @@
         <v>124</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3965,16 +3959,16 @@
         <v>124</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3988,16 +3982,16 @@
         <v>124</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4011,16 +4005,16 @@
         <v>124</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4034,16 +4028,16 @@
         <v>124</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4057,16 +4051,16 @@
         <v>124</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4080,16 +4074,16 @@
         <v>124</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4103,16 +4097,16 @@
         <v>124</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4126,16 +4120,16 @@
         <v>124</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4146,1198 +4140,600 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -1740,7 +1740,7 @@
         <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>28</v>
@@ -1924,7 +1924,7 @@
         <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -1970,7 +1970,7 @@
         <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>28</v>
@@ -1993,7 +1993,7 @@
         <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -2062,7 +2062,7 @@
         <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2085,7 +2085,7 @@
         <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2131,7 +2131,7 @@
         <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>28</v>
@@ -2177,7 +2177,7 @@
         <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2223,7 +2223,7 @@
         <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2246,7 +2246,7 @@
         <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2361,7 +2361,7 @@
         <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>28</v>
@@ -2407,7 +2407,7 @@
         <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>28</v>
@@ -2430,7 +2430,7 @@
         <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2453,7 +2453,7 @@
         <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2637,7 +2637,7 @@
         <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2683,7 +2683,7 @@
         <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2706,7 +2706,7 @@
         <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2775,7 +2775,7 @@
         <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2798,7 +2798,7 @@
         <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2844,7 +2844,7 @@
         <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2890,7 +2890,7 @@
         <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2936,7 +2936,7 @@
         <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2959,7 +2959,7 @@
         <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -3074,7 +3074,7 @@
         <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3120,7 +3120,7 @@
         <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3143,7 +3143,7 @@
         <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -4063,7 +4063,7 @@
         <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>28</v>
@@ -4086,7 +4086,7 @@
         <v>145</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>28</v>
@@ -4109,7 +4109,7 @@
         <v>147</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>28</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -4422,7 +4422,7 @@
         <v>80</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>151</v>
@@ -4445,7 +4445,7 @@
         <v>82</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>151</v>
@@ -4454,7 +4454,7 @@
         <v>83</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>153</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -535,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1725,22 +1737,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>28</v>
@@ -1748,19 +1760,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1771,22 +1783,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -1794,19 +1806,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1829,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1852,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1875,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1886,22 +1898,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>28</v>
@@ -1909,22 +1921,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -1932,19 +1944,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1955,22 +1967,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>28</v>
@@ -1978,22 +1990,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -2001,22 +2013,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -2024,19 +2036,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2059,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>16</v>
@@ -2070,19 +2082,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -2093,19 +2105,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2116,22 +2128,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>28</v>
@@ -2139,22 +2151,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>28</v>
@@ -2162,19 +2174,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -2185,19 +2197,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2220,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -2231,22 +2243,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2254,22 +2266,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2277,19 +2289,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2300,22 +2312,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2323,22 +2335,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2346,22 +2358,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>28</v>
@@ -2369,19 +2381,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2392,22 +2404,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>28</v>
@@ -2415,22 +2427,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2438,19 +2450,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>16</v>
@@ -2461,19 +2473,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2484,22 +2496,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2507,22 +2519,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2530,22 +2542,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>28</v>
@@ -2553,19 +2565,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2588,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2611,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2622,22 +2634,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2645,22 +2657,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2668,22 +2680,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2691,22 +2703,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2714,19 +2726,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2749,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2772,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
@@ -2783,22 +2795,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2806,22 +2818,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2829,19 +2841,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>16</v>
@@ -2852,19 +2864,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2875,22 +2887,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2898,22 +2910,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -2921,19 +2933,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>16</v>
@@ -2944,22 +2956,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2967,22 +2979,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>28</v>
@@ -2990,19 +3002,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3013,22 +3025,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3036,19 +3048,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3071,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>16</v>
@@ -3082,22 +3094,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3105,22 +3117,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3128,22 +3140,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3151,22 +3163,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3174,19 +3186,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3197,22 +3209,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3220,19 +3232,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3243,22 +3255,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3266,22 +3278,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3289,22 +3301,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>28</v>
@@ -3312,19 +3324,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3335,22 +3347,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3358,19 +3370,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3381,22 +3393,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3404,19 +3416,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>16</v>
@@ -3427,19 +3439,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3462,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3473,22 +3485,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3496,22 +3508,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3519,22 +3531,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>28</v>
@@ -3542,22 +3554,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3565,22 +3577,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>28</v>
@@ -3588,19 +3600,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>16</v>
@@ -3611,19 +3623,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3634,22 +3646,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3657,19 +3669,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>16</v>
@@ -3680,22 +3692,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3703,19 +3715,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3726,22 +3738,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>28</v>
@@ -3749,19 +3761,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3772,19 +3784,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -3795,19 +3807,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3818,19 +3830,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -3841,22 +3853,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>28</v>
@@ -3864,19 +3876,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3887,19 +3899,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3910,19 +3922,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3933,19 +3945,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3956,22 +3968,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>28</v>
@@ -3979,19 +3991,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4002,22 +4014,22 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>28</v>
@@ -4025,19 +4037,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4048,22 +4060,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>28</v>
@@ -4071,22 +4083,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>28</v>
@@ -4094,22 +4106,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>28</v>
@@ -4117,19 +4129,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4140,600 +4152,830 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E182" s="2" t="s">
+      <c r="B183" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>153</v>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
